--- a/500all/speech_level/speeches_CHRG-114hhrg95822.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95822.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="290">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412294</t>
   </si>
   <si>
-    <t>Cynthia M. Lummis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lummis. Good morning. The Subcommittee on the Interior will come to order.    Without objection, the chair is authorized to declare a recess at any time.    Today the Subcommittee on the Interior will examine the impact of Executive Order 13658 on Public Land Guides and Outfitters. The executive order mandates a $10.10 minimum hourly wage be paid by employers who contract with the Federal Government. The order was issued in February 2014, and the implementing rule was finalized by the Department of Labor in October 2014.    I want to make it clear that we are not here today to debate the idea of raising the minimum wage in and of itself. That will be done by another committee at another time, but today we're here to discuss the impact on--of how this order and its implementation will negatively impact seasonal rural businesses.    The order will leave many locales in danger of losing small businesses that are providing outdoor and recreational services to the public. It's particularly damaging to rural economies that rely on tourism revenue. Wyoming had more than 10 million visitors who contributed more than $3 billion to the economy in 2014, according to the Wyoming Office of Tourism, from skiing to river rafting trips to trips on horseback. Many of these visitors rely on private businesses that operate on Federal lands.    The Federal Government has promoted tourism as a replacement for logging and mineral development projects that have been strangled by regulation, so it's rather ironic that now the executive branch is working to regulate wilderness tourism out of business. These businesses provide young Americans an opportunity to obtain employment while also providing a valuable service to the visitors of these taxpayer-owned lands.    The rule unnecessarily burdens seasonal operators and small businesses using permits to enhance the use of our outdoors. The Forest Service submitted comments upon the proposed rule, stating that these seasonal guides and outfitters operating under permit are not Federal contractors and, as a result, should be exempt. As a Federal agency very familiar with guides and outfitters using the land under its jurisdiction, the Forest Service recognizes the unique nature of these businesses. It's unfortunate that the Department of Labor chose to disregard them.    As Americans, we are fortunate to live in a Nation with diverse and beautiful landscapes. These landscapes provide families and individuals affordable quality recreation opportunities. Public land guides and outfitters deliver a service that allows for an indepth enjoyment of these activities. This executive order unnecessarily endangers the economic existence of this industry and diminishes the enjoyment of our public lands by Americans nationwide.    Representative Chris Stewart of Utah has introduced H.R. 2215, the Outdoor Recreation Enhancement Act. This legislation seeks to maintain the current level of tourism on public lands. Today we will hear from Congressman Stewart about his legislation to address these concerns and protect rural jobs. We will then hear from representatives of the outfitter and guide community to discuss how their businesses operate and the effects this rule will have on them.    We will also hear from a representative of the Department of Labor, Wage and Hour Division, regarding the implementation of the President's executive order and the rule to enforce its provisions across the Federal Government.    What we have here is something that, unfortunately, we see time and again, especially in the West. The Federal Government in Washington forcing a one-size-fits-all directive on the American people. I sincerely hope that the Department of Labor listens closely to the representatives that we have here and recognizes that this situation as presently drawn up is not workable. I sincerely hope that we can take a commonsense approach to this issue and do the right thing.    With that, I'd like to thank our witnesses in advance for their testimony. I now recognize Ms. Lawrence, the ranking member of the Subcommittee on the Interior, for her opening statement.</t>
   </si>
   <si>
     <t>412638</t>
   </si>
   <si>
-    <t>Brenda L. Lawrence</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lawrence. Thank you, Madam Chair, for holding this hearing. Today we are focussing on the outfitter and outdoor guide business that holds permits to conduct business on Federal land. I understand from the testimony that these organizations are looking for an exemption to the Federal minimum wage rule so that workers will be paid less than the $10.10 required in the President's executive order.    I always support the rights of businesses to earn a profit in their chosen field. However, I do not support their right to earn extra profits at the expense of hard-working Americans. Just as business owners must provide for their families, so must the people who work for them. We must strike a balance between competing interests. I hope that today's testimony can help us to do so with respect to the outdoor industry.    I want to also note that decades of research have shown that raising the minimum wage raises economic growth, and raising the minimum wage is one of the most effective economic tools we have to ensure that the American working class retains its position as the most affluent in the world, a destination it's recently lost.    President Obama's Executive Order 13658 established a minimum wage of $10.10 for businesses that contract with the Federal Government. The order was based on a well-supported finding that raising the pay of low-wage workers increases the quality of their work; more importantly, enables them to support themselves and their families. It should be noted that 29 States and the District of Columbia as well as 21 cities and counties have set their minimum wages above the $7.25. It is also important to note that data has shown that an individual that makes the current $7.25 minimum wage earns about $15,000 a year. Now, let's assume that a husband and wife with two children both make the minimum wage and work full time. That's a gross income of approximately $30,000. You break that down to monthly and weekly, having to feed, clothe, provide housing. I'm from Michigan. There is no public transportation, so cars, insurance, and gasoline.    We are creating a society that I feel has effectively been addressed through the President's executive order, and I do believe firmly that I have the responsibility in this Congress to ensure that, in America, that those who are working every day have what they call an opportunity and resources. If they work every day hard, and they do their jobs, that they can, at minimum, support their families and not be in poverty.    Thank you so much, and I look forward to the testimony today. Thank you, Madam Chair.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Stewart</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Stewart. Thank you, Madam Chair. It's interesting to be on the other side of the table here. It's kind of lonely down here. Thank you for holding this hearing, Ranking Member Mrs. Lawrence as well, to give us this opportunity to look at how the President's executive order on minimum wage is harming seasonal recreation jobs and public lands and how I believe my bill, the Outdoor Recreation Enhancement Act, can address the problem.    This may not be the most exciting issue, I recognize that, but it's an important one. It impacts real people, and I appreciate the chance to be part of the discussion here today. And, again, I apologize in advance for the fact that I have to leave immediately after my testimony.    Chairwoman, you and I both represent districts that are almost entirely controlled by the Federal Government. Federal ownership on our public lands has all kinds of frustrating outcomes for the residents of Western States, and I'm here to talk about one of those situations, where decisions made here in Washington, D.C., are hurting local businesses, local jobs, and access to public lands.    In February of 2014, President Obama issued an executive order establishing a new minimum wage for Federal contractors which raises the minimum wage to $10.10 per hour for businesses operating under Federal contracts.    First, I should note the minimum wage itself is a misguided economic policy that hurts the very people that we most want to help, those at the bottom of the economic scale. Study after study shows that increasing the minimum wage increases unemployment among low-skilled workers. It accelerates the move from labor to capital and makes it harder--not easier but harder--for young people to get those entry-level jobs that develop the basic skills that helps workers advance and earn more.    But, of course, we're not here to talk about that. We want to talk about the impact the President's actions are having on a specific industry. Because the executive order applies to businesses with a Federal contract, that includes guides and outfitters and other recreational businesses whose only connection to the Federal Government is a permit to operate on Federal lands.    That permit is a pretty tenuous link, but it's enough to bring these businesses under the President's executive order. The Department of Labor's subsequent interpretation of the order requires a number of new regulations that will add additional compliance cost to an industry that operates on very small margins. This increase will force many outfitting businesses to either close or to cease operations on public lands or to operate with fewer workers.    Madam Chairwoman, as you know, my district is huge. It's almost 40,000 square miles, and it comprises almost entirely of public land. We have four national parks and millions of acres of BLM and Forest Service land. Raising the cost of businesses to operate on these public lands will certainly have an impact on local jobs and the ability of guides and outfitters to provide the remarkable experience that attracts millions of visitors from around the world every year to our public lands.    We have other witnesses here who I'm sure will elaborate on how some of these new costs will impact their businesses, but I'd like to briefly read from a letter sent to me by a tour operator located in my district that addresses his concerns. He says: ``We very much want to maintain our commitment to the recreational experience in national parks and on public lands. However, the cost of compliance and the draconian overtime restrictions created by this rule have significant impacts on our business. So this is very serious to us, and we may have to cease running trips in national parks.''    This business owner is not alone. I'm sure that other witnesses today will testify of similar concerns. To address these problems, I again have proposed the Outdoor Recreation Enhancement Act just to simply clarify and expand an existing exemption to wage and hour laws for seasonal recreational establishments under the Fair Labor Standards Act.    The bill will broaden this exemption, which currently exempts ski resorts to include businesses involving rafting, horseback riding, hiking, cycling, and other seasonal recreational business, and I think that's key to point out: These are seasonal recreational businesses.    It's also important to emphasize that these--these businesses typically employ high school and college students who are looking for a position for a summer and want to spend time outdoors. Congress already recognized how these circumstances applied to similar industries almost 40 years ago when it exempted the ski business operating on public lands.    My bill is a simple fix that will allow these businesses to continue to operate on Federal lands and allow all of us the opportunity to enjoy extraordinary experiences in our national parks and other public lands. And for those reasons, I'm grateful for this opportunity to appear before this subcommittee.    And, Madam Chairwoman, I yield back my time.</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t xml:space="preserve">    Mrs. Lummis. Gentlemen, please join us. And before I recognize you, could you--is it Lazzeri or Lazzeri?</t>
   </si>
   <si>
-    <t>Lazzeri</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lazzeri. It's Lazzeri.</t>
   </si>
   <si>
@@ -106,18 +94,12 @@
     <t xml:space="preserve">    Mrs. Lummis. Thank you, Mr. Lazzeri.    I would now like to recognize Mr. Cottingham for 5 minutes.</t>
   </si>
   <si>
-    <t>Cottingham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cottingham. Thank you. How do I turn this on? Okay.    Thank you, Madam Chairwoman, and members of the subcommittee, for the opportunity to offer my support for H.R. 2215 and to explain why the Department of Labor rule, Executive Order 13658, threatens the viability of my program and numerous similar travel camp programs and summer camps for youth operating on public lands.    In 1973, my wife and I quit our teaching jobs in order to create an alternative educational experience for young people. The purpose of our program has been to assist young men and women in becoming responsible adults through team building, group living, and caring for one another in challenging outdoor activities.    Since 1973, we have produced--provided life-altering experiences for over 24,000 young adults, including children of several Governors, Congressmen and women, and Senators. Our staff--our self-funded scholarship program enables at least 30 deserving young people, who couldn't afford otherwise, to participate in these experiences each summer.    Our programs operate in 17 federally designated wilderness areas in 12 national parks throughout the United States. These adventures range from 2 to 5 weeks in length and usually involve our subcontracting activities such as rock climbing and white water rafting. Executive Order 13658 would require our monitoring compliance of over 30 subcontractors we work with operating on Federal lands, which would be extremely difficult, if not impossible, for us from both a personnel and a financial perspective.    If they fail to meet the requirements of the Department of Labor rule and do not pay their staff the higher minimum wage for Federal contractors, then we would have to make up the difference. Each summer, we hire between 80 and 100 leaders who are current college students and graduate students. They work 6 weeks on average while they guide our groups on public lands. They also participate as clients with our students on a variety of subcontracted activities, such as climbing Washington's Mount Rainier or Wyoming's Grand Teton or rafting for 4 days on Idaho's Salmon River or Utah's Colorado River. As is the case with hundreds of summer camps and other similar travel camp programs for youth, we must price our programs competitively.    The implementation of the Department of Labor rule would not only be impossible to calculate but would be impossible for anyone in the summer camp industry to afford, as it would increase our salaries dramatically. Implementation of Executive Order 13658 would shut down many summer programs for youth unless they were eligible for an exemption under the Fair Labor Standards Act as it would be impossible to meet the payroll requirements of camp counselors who must be on call 24 hours a day for multiweek employment periods    As a seasonal educational summer program for teens, we also view ourselves as a training program for young leaders. Nearly all of our staff members view their time with us as a break from the rigors of school or as a final opportunity to share their love for the outdoors with youth before they pursue life--full-time careers in law, business, medicine, the arts, et cetera.    Leading a group of young adults for several weeks is a challenging and very fulfilling opportunity as it provides a platform for--which stresses responsibility, accountability, organization, and many other life skills required for success. I always tell my staff if you can successfully lead one of our programs, you are well prepared for future and larger challenges.    I very much appreciate your attention to this issue and to the corrective action of H.R. 2215, which will be necessary to save many summer camps and travel camp programs similar to mine from going out of business. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Lummis. Thank you, Mr. Cottingham.    And, Mr. Brown, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Brown</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brown. Thank you, Madam Chairwoman and Ranking Member Representative Lawrence. I so much appreciate the opportunity to offer America Outdoors' support for H.R. 2215, and I'm also testifying to explain why the Department of Labor rule implementing Executive Order 13658 threatens viability for many outfitters and guide companies operating on public lands.    The implementation of this rule may force many of them out of business. While the minimum wage increase is an issue for some seasonal businesses which hire a large number of entry-level employees, a larger issue is compliance with the complex Department of Labor clause including in this rule, which will become part of every new permit.    Permit holders are required to comply with the DOL clause or face potential disqualification and loss of the permit. As you will see from my testimony, compliance is very difficult for family-run seasonal businesses who do not have a team of labor lawyers on their staff.    The Fair Labor Standards Act includes an exemption for employees hired by seasonal recreational establishments and a partial exemption for recreational establishments under permit by Federal land managing agency. Inconsistent interpretation of the recreational establishment provision under 13(a)(29) leaves many public land outfitters uncertain as to what overtime standard they are subject to.    Some courts have ruled that recreational businesses do not qualify as an establishment under the FLSA if the recreation venue is more than 6 miles or, in one case, more than 9 miles from their headquarters. In these situations, some outfitters would qualify for the exemption, but others providing services in the same area might not.    Outfitters with traveling camps may not qualify as a recreational establishment according to another court ruling. The DOL rule requires permit holders to enforce their contract clause, as my colleague mentioned, on their subcontractors to make up the difference between the executive order wage and the wage paid by the subcontractor.    Some outfitters subcontract with other outfitters for services. Other subcontractors are not even operating on public lands. A guest ranch in Wyoming, for example, might be expected to require a laundry service to comply with the DOL rule and include the standard contract clause in their contract with the laundry service.    Enforcing the DOL contract clause on a subcontractor will be impossible for seasonal recreational businesses. In analyzing the compliance quandary faced by many outfitters and guides, a law firm specializing in Fair Labor Standards Act compliance concluded, although most courts in the Department of Labor consider the same issues when determining whether a company is a seasonal recreational establishment, there is very little consensus regarding how to analyze these questions, much less the outcome of the review.    If the courts, the Department of Labor, and various law firms cannot reach consensus on the interpretation of the FLSA in this area, how can a family-run business be expected to comply? Unfortunately, the quandary now puts their business at risk because it is part of permit compliance.    The DOL rule also requires permit holders to enforce the contract clause under subcontractors, as I mentioned, and that is one of the other challenges that--with compliance that will be very difficult. Aside from the uncertainty and difficulty with compliance, the FSLA correctly interpreted the need for an exemption for seasonal recreational businesses. That exemption needs to be fully restored for these businesses to survive in the long term, and that is why we support H.R. 2215.    Looking beyond the issues related to Executive Order 13658, the accumulation of regulations and their costs on these small outfitter and guide businesses are making their ability to provide services to the public increasingly tenuous. I respectfully request that you continue oversight and hope that members of the subcommittee will work together to encourage the executive branch to streamline and reduce the regulatory burdens which jeopardize employment in the high-quality recreational services the public currently enjoys on public lands. Thank you.</t>
   </si>
   <si>
@@ -301,9 +283,6 @@
     <t>412552</t>
   </si>
   <si>
-    <t>Mark Meadows</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meadows. Thank you, Madam Chairman, and thank you for your leadership on this particular issue.    It is of critical importance to me in that outdoor outfitters are a vital part of western North Carolina.    Mr. Brown, you mentioned the Ocoee. There's the Ocoee. There's the Nantahala. There's the Chattooga. There's a number of different outfitters in my area. Sadly, in those counties, very close to many of those outfitters, the unemployment rate is at 15 percent still today, and yet here we have, Mr. Lazzeri, a rule that threatens to put many of those businesses out of business, and so the augmenting--you know, it's great to say that we have a minimum wage at $10.10 an hour, but when you don't have a job, it doesn't really matter.    So Mr. Lazzeri, I'm going to go to you because I'm troubled by some of the logic. You opened up with a quote with Mr. Perez that says no full-time worker should have to work, and yet we're not really talking about full-time workers here. We're talking about part time and seasonal, so how would that apply to your opening quote from Mr. Perez?</t>
   </si>
   <si>
@@ -403,9 +382,6 @@
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you.    Mr. Lazzeri, what is the meaning of verbal agreements covered by the rule?</t>
   </si>
   <si>
@@ -724,9 +700,6 @@
     <t>412619</t>
   </si>
   <si>
-    <t>Ken Buck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Buck. And I would be glad to yield to the gentleman from North Carolina. I'm enjoying this. So I don't have any questions. So if you'd like to continue.</t>
   </si>
   <si>
@@ -764,9 +737,6 @@
   </si>
   <si>
     <t>412659</t>
-  </si>
-  <si>
-    <t>Stacey E. Plaskett</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Plaskett. Yes. Thank you so much for your time. I don't have that many questions. I know there's been quite a bit of discussion going back and forth on this, and that Ranking Member Lawrence did ask some questions previously.    I just had just a couple that I wanted to speak on. Mr. Brown, I know that this was asked to Mr. Cottingham, but, Mr. Brown, your testimony about the guides in the back country for several days have to keep logs of sleep time and any interruptions. The value of meals they eat have to be calculated and added to hourly computation for overtime wages. Is that correct that keeping these records are not specified in the executive order?</t>
@@ -1312,11 +1282,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1336,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1364,11 +1330,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1388,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1416,11 +1378,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1440,13 +1400,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1466,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1494,11 +1450,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1518,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1546,11 +1498,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1570,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1598,11 +1546,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1622,13 +1568,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1650,11 +1594,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1674,13 +1616,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1702,11 +1642,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1726,13 +1664,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1754,11 +1690,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1780,11 +1714,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1804,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1832,11 +1762,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1856,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1884,11 +1810,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1908,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1936,11 +1858,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1960,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1988,11 +1906,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2012,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2040,11 +1954,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2064,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2092,11 +2002,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2116,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2144,11 +2050,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2168,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2196,11 +2098,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2220,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2248,11 +2146,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2272,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2298,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2324,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2350,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2376,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2402,13 +2288,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2428,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2454,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2480,13 +2360,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2506,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2532,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2558,13 +2432,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2584,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2610,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2636,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2662,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2688,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2714,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2740,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2766,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2792,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2818,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2844,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2870,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2896,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2922,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2948,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2974,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3000,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3026,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3052,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3078,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3104,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3130,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3156,13 +2984,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3182,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3210,11 +3034,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3234,13 +3056,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>94</v>
-      </c>
-      <c r="G76" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3260,13 +3080,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3286,13 +3104,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>94</v>
-      </c>
-      <c r="G78" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3312,13 +3128,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3338,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
-      </c>
-      <c r="G80" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3364,13 +3176,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3390,13 +3200,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>94</v>
-      </c>
-      <c r="G82" t="s">
+        <v>88</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
         <v>95</v>
-      </c>
-      <c r="H82" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3416,13 +3224,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3442,13 +3248,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>94</v>
-      </c>
-      <c r="G84" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3468,13 +3272,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3494,13 +3296,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>94</v>
-      </c>
-      <c r="G86" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3520,13 +3320,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3546,13 +3344,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>94</v>
-      </c>
-      <c r="G88" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3572,13 +3368,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3598,13 +3392,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>94</v>
-      </c>
-      <c r="G90" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3624,13 +3416,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3650,13 +3440,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>94</v>
-      </c>
-      <c r="G92" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3676,13 +3464,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3702,13 +3488,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>94</v>
-      </c>
-      <c r="G94" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3728,13 +3512,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3754,13 +3536,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>94</v>
-      </c>
-      <c r="G96" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3780,13 +3560,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3806,13 +3584,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>94</v>
-      </c>
-      <c r="G98" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3832,13 +3608,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3858,13 +3632,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>94</v>
-      </c>
-      <c r="G100" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3884,13 +3656,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3910,13 +3680,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>94</v>
-      </c>
-      <c r="G102" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3936,13 +3704,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3962,13 +3728,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>94</v>
-      </c>
-      <c r="G104" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3988,13 +3752,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4014,13 +3776,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>94</v>
-      </c>
-      <c r="G106" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4042,11 +3802,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4066,13 +3824,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>128</v>
-      </c>
-      <c r="G108" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4092,13 +3848,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4118,13 +3872,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>128</v>
-      </c>
-      <c r="G110" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4144,13 +3896,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4170,13 +3920,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>128</v>
-      </c>
-      <c r="G112" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4196,13 +3944,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4222,13 +3968,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
+        <v>121</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
         <v>128</v>
-      </c>
-      <c r="G114" t="s">
-        <v>129</v>
-      </c>
-      <c r="H114" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4248,13 +3992,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4274,13 +4016,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>128</v>
-      </c>
-      <c r="G116" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4300,13 +4040,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4326,13 +4064,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>128</v>
-      </c>
-      <c r="G118" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4352,13 +4088,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4378,13 +4112,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>128</v>
-      </c>
-      <c r="G120" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4404,13 +4136,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4430,13 +4160,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>128</v>
-      </c>
-      <c r="G122" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4456,13 +4184,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4482,13 +4208,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>128</v>
-      </c>
-      <c r="G124" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4508,13 +4232,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4534,13 +4256,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>128</v>
-      </c>
-      <c r="G126" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4560,13 +4280,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4586,13 +4304,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>128</v>
-      </c>
-      <c r="G128" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4612,13 +4328,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4638,13 +4352,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>128</v>
-      </c>
-      <c r="G130" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4666,11 +4378,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4690,13 +4400,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4718,11 +4426,9 @@
       <c r="F133" t="s">
         <v>11</v>
       </c>
-      <c r="G133" t="s">
-        <v>12</v>
-      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4742,13 +4448,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4770,11 +4474,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4794,13 +4496,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4822,11 +4522,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4848,11 +4546,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4872,13 +4568,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
-      </c>
-      <c r="G139" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4900,11 +4594,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4924,13 +4616,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
-      </c>
-      <c r="G141" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4952,11 +4642,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4976,13 +4664,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
-      </c>
-      <c r="G143" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5004,11 +4690,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5028,13 +4712,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
-      </c>
-      <c r="G145" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5056,11 +4738,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5080,13 +4760,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>18</v>
-      </c>
-      <c r="G147" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5108,11 +4786,9 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5132,13 +4808,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>18</v>
-      </c>
-      <c r="G149" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5160,11 +4834,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5184,13 +4856,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
-      </c>
-      <c r="G151" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5212,11 +4882,9 @@
       <c r="F152" t="s">
         <v>11</v>
       </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5236,13 +4904,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5264,11 +4930,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5288,13 +4952,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
-      </c>
-      <c r="G155" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5316,11 +4978,9 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5340,13 +5000,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
-      </c>
-      <c r="G157" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5368,11 +5026,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5392,13 +5048,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>18</v>
-      </c>
-      <c r="G159" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5420,11 +5074,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5446,11 +5098,9 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-      <c r="G161" t="s">
-        <v>12</v>
-      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5470,13 +5120,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5496,13 +5144,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>94</v>
-      </c>
-      <c r="G163" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5522,13 +5168,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5548,13 +5192,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5574,13 +5216,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5600,13 +5240,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5626,13 +5264,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5652,13 +5288,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>18</v>
-      </c>
-      <c r="G169" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5678,13 +5312,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5704,13 +5336,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
-      </c>
-      <c r="G171" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5730,13 +5360,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5756,13 +5384,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5782,13 +5408,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
-      </c>
-      <c r="G174" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5810,11 +5434,9 @@
       <c r="F175" t="s">
         <v>11</v>
       </c>
-      <c r="G175" t="s">
-        <v>12</v>
-      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5834,13 +5456,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>94</v>
-      </c>
-      <c r="G176" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5860,13 +5480,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5886,13 +5504,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>94</v>
-      </c>
-      <c r="G178" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5912,13 +5528,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>18</v>
-      </c>
-      <c r="G179" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5938,13 +5552,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>94</v>
-      </c>
-      <c r="G180" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5964,13 +5576,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
-      </c>
-      <c r="G181" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5990,13 +5600,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>94</v>
-      </c>
-      <c r="G182" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6016,13 +5624,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6042,13 +5648,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>94</v>
-      </c>
-      <c r="G184" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6068,13 +5672,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6094,13 +5696,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>94</v>
-      </c>
-      <c r="G186" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6120,13 +5720,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>18</v>
-      </c>
-      <c r="G187" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6146,13 +5744,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>94</v>
-      </c>
-      <c r="G188" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6172,13 +5768,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6198,13 +5792,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>94</v>
-      </c>
-      <c r="G190" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6224,13 +5816,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6250,13 +5840,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>94</v>
-      </c>
-      <c r="G192" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6276,13 +5864,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>18</v>
-      </c>
-      <c r="G193" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6302,13 +5888,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>94</v>
-      </c>
-      <c r="G194" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6328,13 +5912,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6354,13 +5936,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>94</v>
-      </c>
-      <c r="G196" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6380,13 +5960,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6406,13 +5984,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>94</v>
-      </c>
-      <c r="G198" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6432,13 +6008,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>18</v>
-      </c>
-      <c r="G199" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6458,13 +6032,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>94</v>
-      </c>
-      <c r="G200" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6484,13 +6056,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>18</v>
-      </c>
-      <c r="G201" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6510,13 +6080,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>94</v>
-      </c>
-      <c r="G202" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6536,13 +6104,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6562,13 +6128,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>94</v>
-      </c>
-      <c r="G204" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6588,13 +6152,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>18</v>
-      </c>
-      <c r="G205" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6614,13 +6176,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>94</v>
-      </c>
-      <c r="G206" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6640,13 +6200,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>18</v>
-      </c>
-      <c r="G207" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6666,13 +6224,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>94</v>
-      </c>
-      <c r="G208" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6692,13 +6248,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>18</v>
-      </c>
-      <c r="G209" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6718,13 +6272,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>94</v>
-      </c>
-      <c r="G210" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6744,13 +6296,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>18</v>
-      </c>
-      <c r="G211" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6770,13 +6320,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>94</v>
-      </c>
-      <c r="G212" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6798,11 +6346,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>12</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6822,13 +6368,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>235</v>
-      </c>
-      <c r="G214" t="s">
-        <v>236</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6848,13 +6392,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>94</v>
-      </c>
-      <c r="G215" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6874,13 +6416,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>18</v>
-      </c>
-      <c r="G216" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6900,13 +6440,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>94</v>
-      </c>
-      <c r="G217" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6926,13 +6464,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>18</v>
-      </c>
-      <c r="G218" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6952,13 +6488,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>94</v>
-      </c>
-      <c r="G219" t="s">
-        <v>95</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6978,13 +6512,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>235</v>
-      </c>
-      <c r="G220" t="s">
-        <v>236</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7004,13 +6536,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>18</v>
-      </c>
-      <c r="G221" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7030,13 +6560,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>235</v>
-      </c>
-      <c r="G222" t="s">
+        <v>227</v>
+      </c>
+      <c r="G222" t="s"/>
+      <c r="H222" t="s">
         <v>236</v>
-      </c>
-      <c r="H222" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7056,13 +6584,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>18</v>
-      </c>
-      <c r="G223" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7082,13 +6608,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>235</v>
-      </c>
-      <c r="G224" t="s">
-        <v>236</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7110,11 +6634,9 @@
       <c r="F225" t="s">
         <v>11</v>
       </c>
-      <c r="G225" t="s">
-        <v>12</v>
-      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7134,13 +6656,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>249</v>
-      </c>
-      <c r="G226" t="s">
-        <v>250</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7160,13 +6680,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>18</v>
-      </c>
-      <c r="G227" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7186,13 +6704,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>249</v>
-      </c>
-      <c r="G228" t="s">
-        <v>250</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7212,13 +6728,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>18</v>
-      </c>
-      <c r="G229" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7238,13 +6752,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>249</v>
-      </c>
-      <c r="G230" t="s">
-        <v>250</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7264,13 +6776,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>18</v>
-      </c>
-      <c r="G231" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7290,13 +6800,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>249</v>
-      </c>
-      <c r="G232" t="s">
-        <v>250</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7316,13 +6824,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>18</v>
-      </c>
-      <c r="G233" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7342,13 +6848,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>249</v>
-      </c>
-      <c r="G234" t="s">
-        <v>250</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7368,13 +6872,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>18</v>
-      </c>
-      <c r="G235" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7394,13 +6896,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>249</v>
-      </c>
-      <c r="G236" t="s">
+        <v>240</v>
+      </c>
+      <c r="G236" t="s"/>
+      <c r="H236" t="s">
         <v>250</v>
-      </c>
-      <c r="H236" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7420,13 +6920,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>18</v>
-      </c>
-      <c r="G237" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7446,13 +6944,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>249</v>
-      </c>
-      <c r="G238" t="s">
-        <v>250</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7472,13 +6968,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>18</v>
-      </c>
-      <c r="G239" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7498,13 +6992,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>249</v>
-      </c>
-      <c r="G240" t="s">
-        <v>250</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7524,13 +7016,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>18</v>
-      </c>
-      <c r="G241" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7550,13 +7040,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>249</v>
-      </c>
-      <c r="G242" t="s">
-        <v>250</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7576,13 +7064,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>18</v>
-      </c>
-      <c r="G243" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7602,13 +7088,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>249</v>
-      </c>
-      <c r="G244" t="s">
-        <v>250</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7628,13 +7112,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>18</v>
-      </c>
-      <c r="G245" t="s">
-        <v>30</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7654,13 +7136,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>249</v>
-      </c>
-      <c r="G246" t="s">
-        <v>250</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7680,13 +7160,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>18</v>
-      </c>
-      <c r="G247" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7706,13 +7184,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>249</v>
-      </c>
-      <c r="G248" t="s">
-        <v>250</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7732,13 +7208,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>18</v>
-      </c>
-      <c r="G249" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7758,13 +7232,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>249</v>
-      </c>
-      <c r="G250" t="s">
-        <v>250</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7784,13 +7256,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>18</v>
-      </c>
-      <c r="G251" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7810,13 +7280,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>249</v>
-      </c>
-      <c r="G252" t="s">
-        <v>250</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7836,13 +7304,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>18</v>
-      </c>
-      <c r="G253" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7862,13 +7328,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>249</v>
-      </c>
-      <c r="G254" t="s">
-        <v>250</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7890,11 +7354,9 @@
       <c r="F255" t="s">
         <v>11</v>
       </c>
-      <c r="G255" t="s">
-        <v>12</v>
-      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7914,13 +7376,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>128</v>
-      </c>
-      <c r="G256" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7940,13 +7400,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>18</v>
-      </c>
-      <c r="G257" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7966,13 +7424,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>128</v>
-      </c>
-      <c r="G258" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7992,13 +7448,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>18</v>
-      </c>
-      <c r="G259" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8018,13 +7472,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>128</v>
-      </c>
-      <c r="G260" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8044,13 +7496,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>18</v>
-      </c>
-      <c r="G261" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8070,13 +7520,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>128</v>
-      </c>
-      <c r="G262" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8096,13 +7544,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>18</v>
-      </c>
-      <c r="G263" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8122,13 +7568,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>128</v>
-      </c>
-      <c r="G264" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8148,13 +7592,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>128</v>
-      </c>
-      <c r="G265" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8174,13 +7616,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>18</v>
-      </c>
-      <c r="G266" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8200,13 +7640,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>128</v>
-      </c>
-      <c r="G267" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8228,11 +7666,9 @@
       <c r="F268" t="s">
         <v>11</v>
       </c>
-      <c r="G268" t="s">
-        <v>12</v>
-      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8252,13 +7688,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>128</v>
-      </c>
-      <c r="G269" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8278,13 +7712,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>128</v>
-      </c>
-      <c r="G270" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8304,13 +7736,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>18</v>
-      </c>
-      <c r="G271" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8330,13 +7760,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>128</v>
-      </c>
-      <c r="G272" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8356,13 +7784,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>18</v>
-      </c>
-      <c r="G273" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8382,13 +7808,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>128</v>
-      </c>
-      <c r="G274" t="s">
-        <v>129</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8410,11 +7834,9 @@
       <c r="F275" t="s">
         <v>11</v>
       </c>
-      <c r="G275" t="s">
-        <v>12</v>
-      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
